--- a/data/trans_dic/P22$notiene-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Dificultad-trans_dic.xlsx
@@ -727,10 +727,10 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.001899874003210013</v>
+        <v>0.00127043308647181</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0006142320434599848</v>
+        <v>0.0006160919025805759</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001262043710382749</v>
+        <v>0.001731096200668376</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0186512951662854</v>
+        <v>0.01667652596964992</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006081908632661483</v>
+        <v>0.006095232275058753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008541127469557565</v>
+        <v>0.008885986388857466</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01494850444349407</v>
+        <v>0.01832779875277993</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.005087201760406869</v>
+        <v>0.00601519452440687</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.005380735102328058</v>
+        <v>0.00640132396472065</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.01451771185123136</v>
+        <v>0.01331633688572125</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.006124070586718852</v>
+        <v>0.006929836407876903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.003954386497229448</v>
+        <v>0.004005570639234446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.003422124641730593</v>
+        <v>0.004220028446579732</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01143531907606349</v>
+        <v>0.01168980801895296</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.001561566727484262</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0005508433142507972</v>
+        <v>0.0005508433142507971</v>
       </c>
     </row>
     <row r="8">
@@ -872,28 +872,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01100610437953149</v>
+        <v>0.009736970602356286</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01099790696168767</v>
+        <v>0.01185889369441496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.006757315191075502</v>
+        <v>0.006017347779973027</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.00489743576986922</v>
+        <v>0.005580847876476624</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.005691046774018706</v>
+        <v>0.005051775643340744</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.002924440609467091</v>
+        <v>0.002821485038959644</v>
       </c>
     </row>
     <row r="10">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0003380777346582838</v>
+        <v>0.000339447390479292</v>
       </c>
     </row>
     <row r="12">
@@ -991,33 +991,33 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.009205639781833665</v>
+        <v>0.008399173418875172</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.004640894772044496</v>
+        <v>0.005056037199358832</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.005332069824292987</v>
+        <v>0.007363937268178086</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.009712284440934497</v>
+        <v>0.009210860714481078</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.004910255835427048</v>
+        <v>0.004842431241811752</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0025771352889266</v>
+        <v>0.002523209993082327</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.005532136372418415</v>
+        <v>0.004880222370014942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.004644784034779393</v>
+        <v>0.004169384309985128</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.003009884588319296</v>
+        <v>0.003124147107955154</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.002145953740755863</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.001547177800453959</v>
+        <v>0.001547177800453958</v>
       </c>
     </row>
     <row r="14">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.000478105468856957</v>
+        <v>0.0004852602417883604</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0004721636054354303</v>
+        <v>0.0003798140588656988</v>
       </c>
     </row>
     <row r="15">
@@ -1110,26 +1110,26 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01053511437707813</v>
+        <v>0.01004088290205766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.004396400927169085</v>
+        <v>0.005859476909956551</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.0110110207745591</v>
+        <v>0.0111359271079276</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.00576437206766235</v>
+        <v>0.006294705970732311</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.007453182643254624</v>
+        <v>0.008152594303061485</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.004518445816578965</v>
+        <v>0.003763464697497269</v>
       </c>
     </row>
     <row r="16">
@@ -1188,16 +1188,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0005136117504310352</v>
+        <v>0.0005109411299794615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0003537989725087428</v>
+        <v>0.0003554038700247437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0006736191237454303</v>
+        <v>0.0006975215134314511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0003306857476076319</v>
+        <v>0.0003306522106020481</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1206,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.000240474613995503</v>
+        <v>0.0002412386994219293</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0008940393634737133</v>
+        <v>0.0008448723337938796</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0004177770462412804</v>
+        <v>0.0004299087282369799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0001819721665467755</v>
+        <v>0.0001743849299972065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0006335133297683531</v>
+        <v>0.0006148447854828546</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0008392758663987381</v>
+        <v>0.0008779611623237318</v>
       </c>
     </row>
     <row r="18">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.004666407511614596</v>
+        <v>0.005070952787605107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.002940586664078107</v>
+        <v>0.002908892917754981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.004202203763588773</v>
+        <v>0.004655602760020241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.003598135021963152</v>
+        <v>0.003573339367014316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.00203658166498052</v>
+        <v>0.00239927680548741</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.001690696206079132</v>
+        <v>0.001689726618711919</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.002368629237775836</v>
+        <v>0.002650386096456078</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.003318826546430504</v>
+        <v>0.003636582277995068</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.002473642187683411</v>
+        <v>0.002626519463362377</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.001755480914630513</v>
+        <v>0.001761913267959267</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.002718353022947618</v>
+        <v>0.002739933242215398</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.002804750718133774</v>
+        <v>0.002912750863803282</v>
       </c>
     </row>
     <row r="19">
@@ -1555,10 +1555,10 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1185</v>
+        <v>792</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1416</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="7">
@@ -1578,38 +1578,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10880</v>
+        <v>9728</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6349</v>
+        <v>6363</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9626</v>
+        <v>10015</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7455</v>
+        <v>9141</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4692</v>
+        <v>5548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6026</v>
+        <v>7169</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>9053</v>
+        <v>8304</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9221</v>
+        <v>10434</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8557</v>
+        <v>8668</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8152</v>
+        <v>10052</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12834</v>
+        <v>13120</v>
       </c>
     </row>
     <row r="8">
@@ -1744,28 +1744,28 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11851</v>
+        <v>10484</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>9951</v>
+        <v>10730</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6488</v>
+        <v>5777</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>10447</v>
+        <v>11905</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>10870</v>
+        <v>9649</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6071</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="12">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15">
@@ -1907,33 +1907,33 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>8148</v>
+        <v>7434</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4857</v>
+        <v>5291</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5295</v>
+        <v>7313</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7489</v>
+        <v>7102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5144</v>
+        <v>5073</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5442</v>
+        <v>5328</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>9742</v>
+        <v>8594</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>7408</v>
+        <v>6649</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>6303</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="16">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>889</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19">
@@ -2070,26 +2070,26 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>5338</v>
+        <v>5088</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4291</v>
+        <v>5718</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>5392</v>
+        <v>5453</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5232</v>
+        <v>5713</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>7426</v>
+        <v>8123</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>8511</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="20">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2265</v>
+        <v>2345</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1151</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3303</v>
+        <v>3122</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2731</v>
+        <v>2810</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1265</v>
+        <v>1212</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4361</v>
+        <v>4232</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6023</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="23">
@@ -2236,40 +2236,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15046</v>
+        <v>16351</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10022</v>
+        <v>9914</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14129</v>
+        <v>15654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12526</v>
+        <v>12440</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6747</v>
+        <v>7949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5990</v>
+        <v>5986</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8340</v>
+        <v>9332</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12262</v>
+        <v>13436</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16171</v>
+        <v>17171</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>12202</v>
+        <v>12247</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>18711</v>
+        <v>18860</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20127</v>
+        <v>20902</v>
       </c>
     </row>
     <row r="24">
